--- a/知识储备计划.xlsx
+++ b/知识储备计划.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2019-07-21" sheetId="1" r:id="rId1"/>
+    <sheet name="20200718" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>软件技能积累</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +150,42 @@
   </si>
   <si>
     <t>DSP应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINUX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linux下makefile编写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vxworks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统自启动过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单的坐标系画图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读写XML文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三阶插值算法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +193,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +203,24 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -219,13 +274,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -532,7 +596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -979,4 +1043,96 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:1" collapsed="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="1:1" collapsed="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:1" collapsed="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="33" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="34" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="35" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="36" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="37" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15"/>
+    <row r="38" collapsed="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>